--- a/trunk/extend/sitemap.xlsx
+++ b/trunk/extend/sitemap.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19095" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19095" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Mô tả tổng quan" sheetId="1" r:id="rId1"/>
     <sheet name="Bản vẽ mô tả Sitemap" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -315,22 +315,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -346,6 +334,18 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4190,6 +4190,415 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Oval 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="6686550"/>
+          <a:ext cx="2371725" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SAN PHAM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Down Arrow 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="5124450"/>
+          <a:ext cx="76200" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Shape 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="2"/>
+          <a:endCxn id="74" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4791075" y="5753099"/>
+          <a:ext cx="2028825" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Elbow Connector 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7824788" y="5843588"/>
+          <a:ext cx="1885950" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Elbow Connector 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="5124450"/>
+          <a:ext cx="2047875" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Shape 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="2"/>
+          <a:endCxn id="74" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3400425" y="4362450"/>
+          <a:ext cx="2057400" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Shape 105"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8562976" y="5095875"/>
+          <a:ext cx="1800225" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Shape 115"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9391651" y="4314825"/>
+          <a:ext cx="1876425" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4482,7 +4891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -4496,12 +4905,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
@@ -4521,271 +4930,271 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="16" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="16"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="16"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:8" s="8" customFormat="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" s="11" customFormat="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
+    <row r="10" spans="1:8" s="8" customFormat="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+    <row r="11" spans="1:8" s="8" customFormat="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="1:8" s="8" customFormat="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" s="11" customFormat="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+    <row r="13" spans="1:8" s="8" customFormat="1">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="11" customFormat="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+    <row r="14" spans="1:8" s="8" customFormat="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" s="11" customFormat="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+    <row r="15" spans="1:8" s="8" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="2:4" ht="15" customHeight="1">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="23"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="23"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="23"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4805,20 +5214,20 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:16">
       <c r="B38" t="s">
@@ -4836,31 +5245,31 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="145.5" customHeight="1">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:16" ht="62.25" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
@@ -4873,106 +5282,106 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="84" customHeight="1">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
     </row>
     <row r="50" spans="1:22" ht="21" customHeight="1">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="1:22" ht="99" customHeight="1">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="A42:P42"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A49:V49"/>
     <mergeCell ref="A51:O51"/>
     <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -4983,8 +5392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
